--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443547.7693120595</v>
+        <v>436343.4828038227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>37.18582309281558</v>
+        <v>78.32097487848354</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -1661,13 +1661,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90.99360837528201</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>87.86537997303478</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,58 +2236,58 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4467082856156</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,49 +2567,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>11.85487546784177</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.42349649226733</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>93.47363648169059</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>85.22343841471893</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>72.4288331457083</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.2637201985544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>11.86372679529251</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>33.19332575419072</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3673,46 +3673,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>117.392300386009</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>97.76646051984092</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>7.842739209033997</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.6192102101089</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2300195200815</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>205.7769902389545</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D3" t="n">
-        <v>56.84258057770322</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4449,10 +4449,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>548.4453565401495</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9530410142718</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F8" t="n">
-        <v>243.9530410142718</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>243.9530410142718</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4978,13 +4978,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V11" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W11" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
         <v>19.28114311021272</v>
@@ -5124,10 +5124,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>877.8816728430684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>877.8816728430684</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>877.8816728430684</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>877.8816728430684</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X12" t="n">
-        <v>877.8816728430684</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y12" t="n">
-        <v>670.1213740781145</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5215,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>703.9290827579601</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C15" t="n">
-        <v>529.4760534768332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>529.4760534768332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>370.2385984713777</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>872.1444197780281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>872.1444197780281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>872.1444197780281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>872.1444197780281</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>872.1444197780281</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>872.1444197780281</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X15" t="n">
-        <v>872.1444197780281</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y15" t="n">
-        <v>872.1444197780281</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,19 +5595,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>700.6811714053606</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>231.8830517671884</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>231.8830517671884</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="25">
@@ -6175,10 +6175,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>533.6469426057913</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>374.4094876003358</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>533.6469426057913</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.6469426057913</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>501.9060370580465</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>869.6393408826659</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="V30" t="n">
-        <v>533.6469426057913</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="W30" t="n">
-        <v>533.6469426057913</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="X30" t="n">
-        <v>533.6469426057913</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="Y30" t="n">
-        <v>533.6469426057913</v>
+        <v>667.4527462414319</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6658,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
         <v>829.5248650203655</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6740,10 +6740,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>587.9903182850353</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>413.5372890039083</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>264.602879342657</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>105.3654243372015</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>105.3654243372015</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3253049269343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>197.3253049269343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>197.3253049269343</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
         <v>829.5248650203655</v>
@@ -7129,16 +7129,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
         <v>19.28114311021272</v>
@@ -7360,22 +7360,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>118.0351436353046</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C42" t="n">
-        <v>118.0351436353046</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D42" t="n">
-        <v>118.0351436353046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>118.0351436353046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>118.0351436353046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V42" t="n">
-        <v>533.6469426057913</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W42" t="n">
-        <v>533.6469426057913</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X42" t="n">
-        <v>325.7954424002585</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y42" t="n">
-        <v>118.0351436353046</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>366.1018663125844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V44" t="n">
-        <v>366.1018663125844</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W44" t="n">
-        <v>366.1018663125844</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1018663125844</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>186.4405569126723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>621.8469951458151</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>562.4161926976942</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X45" t="n">
-        <v>562.4161926976942</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>354.6558939327403</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
         <v>19.28114311021272</v>
@@ -7846,10 +7846,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>301.248502863135</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9021,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10206,7 +10206,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>312.0431814381598</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,7 +10917,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,10 +11151,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>312.4655587480054</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,13 +22604,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,28 +22626,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>120.4592573625854</v>
+        <v>79.3241055769174</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22689,7 +22689,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22802,7 +22802,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,7 +22829,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,22 +23027,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,22 +23148,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>142.0904719091984</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>101.40258158463</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.84410631175096</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,16 +23391,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,28 +23574,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>83.50129159232563</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.164225777361125</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,13 +23631,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23780,19 +23780,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23826,10 +23826,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.051527993195</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,16 +24026,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24051,22 +24051,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>59.57968559160398</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,22 +24096,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>108.137662477717</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24285,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.26179070270013</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,13 +24415,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,19 +24485,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>101.40258158463</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>133.2143369255421</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24695,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.1096871576</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>78.20953462214723</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>52.12007874849171</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25044,22 +25044,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>167.4364142495718</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,13 +25242,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>72.64037924767558</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.41897557874998</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>403.4390107198425</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>104.1501914090199</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,10 +25518,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,10 +25634,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>49.14088326385837</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>39.57705664336972</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>164.8657597792817</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477179</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490412.1637477179</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477181</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490412.1637477181</v>
+        <v>490412.1637477182</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490412.1637477182</v>
+        <v>490412.1637477179</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="K4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.8467842577</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37218.97472014359</v>
+        <v>-38080.04268106781</v>
       </c>
       <c r="C6" t="n">
-        <v>43550.45681140411</v>
+        <v>42689.38885047989</v>
       </c>
       <c r="D6" t="n">
-        <v>43550.45681140414</v>
+        <v>42689.38885047992</v>
       </c>
       <c r="E6" t="n">
-        <v>77178.05681140411</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="F6" t="n">
-        <v>77178.05681140411</v>
+        <v>76316.98885047993</v>
       </c>
       <c r="G6" t="n">
-        <v>77178.05681140414</v>
+        <v>76316.9888504799</v>
       </c>
       <c r="H6" t="n">
-        <v>77178.05681140411</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="I6" t="n">
-        <v>77178.05681140414</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="J6" t="n">
-        <v>14118.11421229788</v>
+        <v>13257.04625137368</v>
       </c>
       <c r="K6" t="n">
-        <v>77178.05681140412</v>
+        <v>76316.98885047989</v>
       </c>
       <c r="L6" t="n">
-        <v>77178.05681140409</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="M6" t="n">
-        <v>77178.05681140411</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="N6" t="n">
-        <v>77178.05681140411</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="O6" t="n">
-        <v>77178.05681140412</v>
+        <v>76316.98885047992</v>
       </c>
       <c r="P6" t="n">
-        <v>77178.05681140414</v>
+        <v>76316.98885047992</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35741,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,7 +36683,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36926,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9091475161415</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,7 +37637,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,10 +37871,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>161.1784674257276</v>
-      </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
